--- a/docs/PPG/VIgentes.xlsx
+++ b/docs/PPG/VIgentes.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10520"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10611"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/asferreira/Google Drive (arthurde@souunisuam.com.br)/ObservatorioCR/PPG/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{092063E6-D474-304B-BAF7-296976584E65}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D6F09A0F-BCD3-E34D-96DD-1EC22AE572B6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1160" yWindow="1100" windowWidth="27640" windowHeight="16900" xr2:uid="{46CBE343-25B5-CE4C-8D60-80361989358C}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="31">
   <si>
     <t>Publicação</t>
   </si>
@@ -121,6 +121,12 @@
   </si>
   <si>
     <t>https://drive.google.com/file/d/18KT6hFduHlxoZ3K5qFsgHqrnWerHFStO/view?usp=sharing</t>
+  </si>
+  <si>
+    <t>Orientações à Banca Examinadora.pdf</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1u5MHCqc1hs6M-E_3q0iiq3Ir_-FB9keA/view?usp=sharing</t>
   </si>
 </sst>
 </file>
@@ -495,7 +501,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BE924A4F-D589-3C4B-9729-4A43A2F840CF}">
-  <dimension ref="A1:C12"/>
+  <dimension ref="A1:C13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -550,15 +556,15 @@
         <v>26</v>
       </c>
     </row>
-    <row r="5" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>1</v>
       </c>
       <c r="B5" t="s">
-        <v>10</v>
+        <v>29</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>11</v>
+        <v>30</v>
       </c>
     </row>
     <row r="6" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.2">
@@ -566,32 +572,32 @@
         <v>1</v>
       </c>
       <c r="B6" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>1</v>
       </c>
       <c r="B7" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>2</v>
+        <v>8</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="B8" t="s">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>12</v>
+        <v>2</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.2">
@@ -599,10 +605,10 @@
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.2">
@@ -610,51 +616,63 @@
         <v>7</v>
       </c>
       <c r="B10" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
+        <v>7</v>
+      </c>
+      <c r="B11" t="s">
+        <v>17</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
         <v>19</v>
       </c>
-      <c r="B11" t="s">
+      <c r="B12" t="s">
         <v>21</v>
       </c>
-      <c r="C11" s="2" t="s">
+      <c r="C12" s="2" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A12" s="3">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A13" s="3">
         <v>2022</v>
       </c>
-      <c r="B12" t="s">
+      <c r="B13" t="s">
         <v>24</v>
       </c>
-      <c r="C12" s="2" t="s">
+      <c r="C13" s="2" t="s">
         <v>28</v>
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A3:C12">
-    <sortCondition descending="1" ref="A3:A12"/>
-    <sortCondition ref="B3:B12"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A3:C13">
+    <sortCondition descending="1" ref="A3:A13"/>
+    <sortCondition ref="B3:B13"/>
   </sortState>
   <hyperlinks>
-    <hyperlink ref="C7" r:id="rId1" xr:uid="{DB57E0E7-9A8B-7140-8D28-991BB0FD7F7D}"/>
-    <hyperlink ref="C6" r:id="rId2" xr:uid="{AA44DC58-5326-8C4C-85BB-E22BC9AD1956}"/>
-    <hyperlink ref="C5" r:id="rId3" xr:uid="{75B16AF2-46C3-6246-BDE5-B138BFD304BD}"/>
-    <hyperlink ref="C8" r:id="rId4" xr:uid="{8F1BAC88-F153-1142-BBB1-C9827E523619}"/>
-    <hyperlink ref="C9" r:id="rId5" xr:uid="{3D82C74A-A7D4-C240-86CB-33835EFD9F50}"/>
-    <hyperlink ref="C10" r:id="rId6" xr:uid="{414B49AD-16C8-504B-82BF-C99DE372005F}"/>
-    <hyperlink ref="C11" r:id="rId7" xr:uid="{C445AED2-6FFD-EE47-A01F-364BEA33C43D}"/>
-    <hyperlink ref="C12" r:id="rId8" xr:uid="{637EE788-E971-164C-A3EB-A6408DA20554}"/>
+    <hyperlink ref="C8" r:id="rId1" xr:uid="{DB57E0E7-9A8B-7140-8D28-991BB0FD7F7D}"/>
+    <hyperlink ref="C7" r:id="rId2" xr:uid="{AA44DC58-5326-8C4C-85BB-E22BC9AD1956}"/>
+    <hyperlink ref="C6" r:id="rId3" xr:uid="{75B16AF2-46C3-6246-BDE5-B138BFD304BD}"/>
+    <hyperlink ref="C9" r:id="rId4" xr:uid="{8F1BAC88-F153-1142-BBB1-C9827E523619}"/>
+    <hyperlink ref="C10" r:id="rId5" xr:uid="{3D82C74A-A7D4-C240-86CB-33835EFD9F50}"/>
+    <hyperlink ref="C11" r:id="rId6" xr:uid="{414B49AD-16C8-504B-82BF-C99DE372005F}"/>
+    <hyperlink ref="C12" r:id="rId7" xr:uid="{C445AED2-6FFD-EE47-A01F-364BEA33C43D}"/>
+    <hyperlink ref="C13" r:id="rId8" xr:uid="{637EE788-E971-164C-A3EB-A6408DA20554}"/>
     <hyperlink ref="C3" r:id="rId9" xr:uid="{410AE709-E0C2-3F49-B85E-A18F580F5A42}"/>
     <hyperlink ref="C4" r:id="rId10" xr:uid="{5530C49E-2CC5-094E-A10B-78A6B8E0EC87}"/>
     <hyperlink ref="C2" r:id="rId11" xr:uid="{CB58EB3F-82D5-4C43-BFC1-74480F2253BB}"/>
+    <hyperlink ref="C5" r:id="rId12" xr:uid="{8AB4FB8E-1C53-5247-91E7-6415882016CD}"/>
   </hyperlinks>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>
